--- a/Dokumente/VergleichRandomWalk.xlsx
+++ b/Dokumente/VergleichRandomWalk.xlsx
@@ -4,25 +4,50 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="15876" windowHeight="5592"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="15876" windowHeight="5592" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Who" sheetId="2" r:id="rId2"/>
+    <sheet name="Movies" sheetId="3" r:id="rId3"/>
+    <sheet name="Mine" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+  <si>
+    <t>Normal 20% Random</t>
+  </si>
+  <si>
+    <t>~0%</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>OHNE INDEX</t>
+  </si>
+  <si>
+    <t>Mit Index</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,26 +75,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1364,25 +1379,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113271936"/>
-        <c:axId val="113273472"/>
+        <c:axId val="94521984"/>
+        <c:axId val="95609216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113271936"/>
+        <c:axId val="94521984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113273472"/>
+        <c:crossAx val="95609216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113273472"/>
+        <c:axId val="95609216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,20 +1405,158 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113271936"/>
+        <c:crossAx val="94521984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$M$43:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$43:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9276758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20274393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47952042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$M$43:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$O$43:$O$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16639466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34813863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70912419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="95646080"/>
+        <c:axId val="95647616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95646080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95647616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95647616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95646080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1436,6 +1589,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591670</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430306</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1729,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2217,7 +2400,7 @@
         <v>19.662031283628508</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:21">
       <c r="A33">
         <v>16500</v>
       </c>
@@ -2232,7 +2415,7 @@
         <v>19.852436260155969</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:21">
       <c r="A34">
         <v>17000</v>
       </c>
@@ -2247,7 +2430,7 @@
         <v>21.13600138134484</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:21">
       <c r="A35">
         <v>17500</v>
       </c>
@@ -2262,7 +2445,7 @@
         <v>21.340054369419136</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>18000</v>
       </c>
@@ -2277,7 +2460,7 @@
         <v>19.757216841204638</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:21">
       <c r="A37">
         <v>18500</v>
       </c>
@@ -2292,7 +2475,7 @@
         <v>20.391554768201146</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>19000</v>
       </c>
@@ -2307,7 +2490,7 @@
         <v>19.685930259330476</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>19500</v>
       </c>
@@ -2322,7 +2505,7 @@
         <v>21.938489602576595</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>20000</v>
       </c>
@@ -2337,7 +2520,7 @@
         <v>19.799091833323885</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:21">
       <c r="A41">
         <v>20500</v>
       </c>
@@ -2352,7 +2535,7 @@
         <v>22.394571368117226</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:21">
       <c r="A42">
         <v>21000</v>
       </c>
@@ -2367,7 +2550,7 @@
         <v>20.22509751813871</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:21">
       <c r="A43">
         <v>21500</v>
       </c>
@@ -2381,8 +2564,21 @@
         <f t="shared" si="0"/>
         <v>19.483332998351884</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="M43">
+        <v>10000</v>
+      </c>
+      <c r="N43">
+        <v>9276758</v>
+      </c>
+      <c r="O43">
+        <v>16639466</v>
+      </c>
+      <c r="P43">
+        <f>N43-O43</f>
+        <v>-7362708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44">
         <v>22000</v>
       </c>
@@ -2396,8 +2592,21 @@
         <f t="shared" si="0"/>
         <v>20.303410538457783</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="M44">
+        <v>20000</v>
+      </c>
+      <c r="N44">
+        <v>20274393</v>
+      </c>
+      <c r="O44">
+        <v>34813863</v>
+      </c>
+      <c r="P44">
+        <f t="shared" ref="P44:P45" si="1">N44-O44</f>
+        <v>-14539470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45">
         <v>22500</v>
       </c>
@@ -2411,8 +2620,21 @@
         <f t="shared" si="0"/>
         <v>21.365963379378542</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="M45">
+        <v>40000</v>
+      </c>
+      <c r="N45">
+        <v>47952042</v>
+      </c>
+      <c r="O45">
+        <v>70912419</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>-22960377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>23000</v>
       </c>
@@ -2427,7 +2649,7 @@
         <v>20.760224828286368</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:21">
       <c r="A47">
         <v>23500</v>
       </c>
@@ -2442,7 +2664,7 @@
         <v>20.143548397811713</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:21">
       <c r="A48">
         <v>24000</v>
       </c>
@@ -2456,8 +2678,21 @@
         <f t="shared" si="0"/>
         <v>20.597635043069701</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="R48">
+        <v>1000</v>
+      </c>
+      <c r="S48">
+        <v>316764</v>
+      </c>
+      <c r="T48">
+        <v>358640</v>
+      </c>
+      <c r="U48">
+        <f>100/S48*T48</f>
+        <v>113.21993660895809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>24500</v>
       </c>
@@ -2471,8 +2706,21 @@
         <f t="shared" si="0"/>
         <v>20.83221414312348</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="R49">
+        <v>2000</v>
+      </c>
+      <c r="S49">
+        <v>531153</v>
+      </c>
+      <c r="T49">
+        <v>673175</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ref="U49:U54" si="2">100/S49*T49</f>
+        <v>126.73843506484948</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>25000</v>
       </c>
@@ -2486,8 +2734,21 @@
         <f t="shared" si="0"/>
         <v>21.449576294763276</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="R50">
+        <v>4000</v>
+      </c>
+      <c r="S50">
+        <v>1163620</v>
+      </c>
+      <c r="T50">
+        <v>1336201</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>114.83138825389732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51">
         <v>25500</v>
       </c>
@@ -2501,8 +2762,21 @@
         <f t="shared" si="0"/>
         <v>21.711103818968411</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="R51">
+        <v>8000</v>
+      </c>
+      <c r="S51">
+        <v>2641482</v>
+      </c>
+      <c r="T51">
+        <v>2750973</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>104.14505947797487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52">
         <v>26000</v>
       </c>
@@ -2516,8 +2790,21 @@
         <f t="shared" si="0"/>
         <v>21.702006906356544</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="R52">
+        <v>16000</v>
+      </c>
+      <c r="S52">
+        <v>6655553</v>
+      </c>
+      <c r="T52">
+        <v>6541920</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>98.292658776813894</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53">
         <v>26500</v>
       </c>
@@ -2531,8 +2818,21 @@
         <f t="shared" si="0"/>
         <v>18.736797275789783</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="R53">
+        <v>32000</v>
+      </c>
+      <c r="S53">
+        <v>18432163</v>
+      </c>
+      <c r="T53">
+        <v>17469147</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>94.775350022675028</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54">
         <v>27000</v>
       </c>
@@ -2546,8 +2846,21 @@
         <f t="shared" si="0"/>
         <v>21.914597188380966</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="R54">
+        <v>64000</v>
+      </c>
+      <c r="S54">
+        <v>58590086</v>
+      </c>
+      <c r="T54">
+        <v>52819605</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>90.151096552409911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55">
         <v>27500</v>
       </c>
@@ -2561,8 +2874,11 @@
         <f t="shared" si="0"/>
         <v>21.600087493782553</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="S55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>28000</v>
       </c>
@@ -2577,7 +2893,7 @@
         <v>20.804195576967643</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>28500</v>
       </c>
@@ -2592,7 +2908,7 @@
         <v>17.246972825712902</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>29000</v>
       </c>
@@ -2607,7 +2923,7 @@
         <v>21.823838611461355</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:21">
       <c r="A59">
         <v>29500</v>
       </c>
@@ -2622,7 +2938,7 @@
         <v>21.364968947749702</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:21">
       <c r="A60">
         <v>30000</v>
       </c>
@@ -2637,7 +2953,7 @@
         <v>21.530382445792313</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:21">
       <c r="A61">
         <v>30500</v>
       </c>
@@ -2652,7 +2968,7 @@
         <v>21.576232351240037</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:21">
       <c r="A62">
         <v>31000</v>
       </c>
@@ -2667,7 +2983,7 @@
         <v>23.447508791321027</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>31500</v>
       </c>
@@ -2682,7 +2998,7 @@
         <v>27.423799308984854</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>32000</v>
       </c>
@@ -2723,7 +3039,7 @@
         <v>7848445</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D100" si="1">100-100/B66*C66</f>
+        <f t="shared" ref="D66:D100" si="3">100-100/B66*C66</f>
         <v>19.733168827022212</v>
       </c>
     </row>
@@ -2738,7 +3054,7 @@
         <v>7912978</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.692247797965635</v>
       </c>
     </row>
@@ -2753,7 +3069,7 @@
         <v>8207719</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.174291643977568</v>
       </c>
     </row>
@@ -2768,7 +3084,7 @@
         <v>8633769</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.398726935619337</v>
       </c>
     </row>
@@ -2783,7 +3099,7 @@
         <v>8707692</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.167807878754189</v>
       </c>
     </row>
@@ -2798,7 +3114,7 @@
         <v>9036639</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.999851207674396</v>
       </c>
     </row>
@@ -2813,7 +3129,7 @@
         <v>9292802</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.579039256823449</v>
       </c>
     </row>
@@ -2828,7 +3144,7 @@
         <v>9580975</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.650081350235851</v>
       </c>
     </row>
@@ -2843,7 +3159,7 @@
         <v>9821235</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.584908356239112</v>
       </c>
     </row>
@@ -2858,7 +3174,7 @@
         <v>10109994</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.972002477697302</v>
       </c>
     </row>
@@ -2873,7 +3189,7 @@
         <v>10451449</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.115419889664494</v>
       </c>
     </row>
@@ -2888,7 +3204,7 @@
         <v>10797017</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.163928586455825</v>
       </c>
     </row>
@@ -2903,7 +3219,7 @@
         <v>10887990</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.088941715345925</v>
       </c>
     </row>
@@ -2918,7 +3234,7 @@
         <v>11254520</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.656936416388717</v>
       </c>
     </row>
@@ -2933,7 +3249,7 @@
         <v>11626706</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.891020832376512</v>
       </c>
     </row>
@@ -2948,7 +3264,7 @@
         <v>11909136</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.494499832595139</v>
       </c>
     </row>
@@ -2963,7 +3279,7 @@
         <v>12146246</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.050646031312084</v>
       </c>
     </row>
@@ -2978,7 +3294,7 @@
         <v>12545444</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.102902763287972</v>
       </c>
     </row>
@@ -2993,7 +3309,7 @@
         <v>12798848</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.363734556106252</v>
       </c>
     </row>
@@ -3008,7 +3324,7 @@
         <v>13188825</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.605645676276225</v>
       </c>
     </row>
@@ -3023,7 +3339,7 @@
         <v>14001720</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.049153932191658</v>
       </c>
     </row>
@@ -3038,7 +3354,7 @@
         <v>13835175</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.84133921371469</v>
       </c>
     </row>
@@ -3053,7 +3369,7 @@
         <v>14157903</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.878177769141644</v>
       </c>
     </row>
@@ -3068,7 +3384,7 @@
         <v>14628224</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.502364322824803</v>
       </c>
     </row>
@@ -3083,7 +3399,7 @@
         <v>14860213</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.831657893106168</v>
       </c>
     </row>
@@ -3098,7 +3414,7 @@
         <v>15305248</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.403752638321919</v>
       </c>
     </row>
@@ -3113,7 +3429,7 @@
         <v>15713713</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.117873278727075</v>
       </c>
     </row>
@@ -3128,7 +3444,7 @@
         <v>16102078</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.396323733956933</v>
       </c>
     </row>
@@ -3143,7 +3459,7 @@
         <v>16360627</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.371846259591578</v>
       </c>
     </row>
@@ -3158,7 +3474,7 @@
         <v>16728829</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.798343248594563</v>
       </c>
     </row>
@@ -3173,7 +3489,7 @@
         <v>17273558</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.170077117752712</v>
       </c>
     </row>
@@ -3188,7 +3504,7 @@
         <v>17544882</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.895982002846949</v>
       </c>
     </row>
@@ -3203,7 +3519,7 @@
         <v>18321723</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.997038010867513</v>
       </c>
     </row>
@@ -3218,7 +3534,7 @@
         <v>18373184</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.805610042849793</v>
       </c>
     </row>
@@ -3233,16 +3549,16 @@
         <v>19461115</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.45243893495315</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D100">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3254,24 +3570,1528 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>32798</v>
+      </c>
+      <c r="C3">
+        <v>30458</v>
+      </c>
+      <c r="D3">
+        <f>100-100/B3*C3</f>
+        <v>7.134581376913232</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>34836</v>
+      </c>
+      <c r="I3">
+        <v>31784</v>
+      </c>
+      <c r="J3">
+        <f>100-100/H3*I3</f>
+        <v>8.7610517855092382</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>28493</v>
+      </c>
+      <c r="O3">
+        <v>27434</v>
+      </c>
+      <c r="P3">
+        <f>100-100/N3*O3</f>
+        <v>3.7167023479451018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>48875</v>
+      </c>
+      <c r="C4">
+        <v>40479</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">100-100/B4*C4</f>
+        <v>17.178516624040924</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>54088</v>
+      </c>
+      <c r="I4">
+        <v>47060</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="1">100-100/H4*I4</f>
+        <v>12.993639994083722</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <v>45841</v>
+      </c>
+      <c r="O4">
+        <v>36931</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P9" si="2">100-100/N4*O4</f>
+        <v>19.43674876202526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>139632</v>
+      </c>
+      <c r="C5">
+        <v>103962</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>25.545720178755587</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>151337</v>
+      </c>
+      <c r="I5">
+        <v>99620</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>34.173401084995731</v>
+      </c>
+      <c r="M5">
+        <v>4000</v>
+      </c>
+      <c r="N5">
+        <v>125181</v>
+      </c>
+      <c r="O5">
+        <v>84870</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>32.202171256021273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>508295</v>
+      </c>
+      <c r="C6">
+        <v>336735</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>33.752053433537611</v>
+      </c>
+      <c r="G6">
+        <v>8000</v>
+      </c>
+      <c r="H6">
+        <v>491908</v>
+      </c>
+      <c r="I6">
+        <v>334586</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>31.981996633516843</v>
+      </c>
+      <c r="M6">
+        <v>8000</v>
+      </c>
+      <c r="N6">
+        <v>470984</v>
+      </c>
+      <c r="O6">
+        <v>314747</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>33.172464457391328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>16000</v>
+      </c>
+      <c r="B7">
+        <v>1927230</v>
+      </c>
+      <c r="C7">
+        <v>1379176</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>28.437394602616195</v>
+      </c>
+      <c r="G7">
+        <v>16000</v>
+      </c>
+      <c r="H7">
+        <v>1915563</v>
+      </c>
+      <c r="I7">
+        <v>1389230</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>27.476673959561751</v>
+      </c>
+      <c r="M7">
+        <v>16000</v>
+      </c>
+      <c r="N7">
+        <v>1857423</v>
+      </c>
+      <c r="O7">
+        <v>1330871</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>28.34852373422747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>32000</v>
+      </c>
+      <c r="B8">
+        <v>7734670</v>
+      </c>
+      <c r="C8">
+        <v>5595318</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>27.659253723817557</v>
+      </c>
+      <c r="G8">
+        <v>32000</v>
+      </c>
+      <c r="H8">
+        <v>7777287</v>
+      </c>
+      <c r="I8">
+        <v>5662484</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>27.19204010344481</v>
+      </c>
+      <c r="M8">
+        <v>32000</v>
+      </c>
+      <c r="N8">
+        <v>7564790</v>
+      </c>
+      <c r="O8">
+        <v>5719020</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>24.399487626226247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>64000</v>
+      </c>
+      <c r="B9">
+        <v>33532264</v>
+      </c>
+      <c r="C9">
+        <v>25317704</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>24.49748099323088</v>
+      </c>
+      <c r="G9">
+        <v>64000</v>
+      </c>
+      <c r="H9">
+        <v>33488919</v>
+      </c>
+      <c r="I9">
+        <v>25280353</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>24.511289838886711</v>
+      </c>
+      <c r="M9">
+        <v>64000</v>
+      </c>
+      <c r="N9">
+        <v>35032656</v>
+      </c>
+      <c r="O9">
+        <v>25197904</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>28.073098425651779</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>425473</v>
+      </c>
+      <c r="C3">
+        <v>562458</v>
+      </c>
+      <c r="D3">
+        <f>100-100/B3*C3</f>
+        <v>-32.195932526858343</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>369569</v>
+      </c>
+      <c r="I3">
+        <v>420317</v>
+      </c>
+      <c r="J3">
+        <f>100-100/H3*I3</f>
+        <v>-13.731671217012249</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>282086</v>
+      </c>
+      <c r="O3">
+        <v>309547</v>
+      </c>
+      <c r="P3">
+        <f>100-100/N3*O3</f>
+        <v>-9.7349744404188812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>810756</v>
+      </c>
+      <c r="C4">
+        <v>990162</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">100-100/B4*C4</f>
+        <v>-22.128235868744738</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>698738</v>
+      </c>
+      <c r="I4">
+        <v>851941</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="1">100-100/H4*I4</f>
+        <v>-21.925671710998969</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <v>482858</v>
+      </c>
+      <c r="O4">
+        <v>540868</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P9" si="2">100-100/N4*O4</f>
+        <v>-12.013883999022482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>1610042</v>
+      </c>
+      <c r="C5">
+        <v>2025982</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-25.834108675425867</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>1404513</v>
+      </c>
+      <c r="I5">
+        <v>1655459</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-17.867118353479114</v>
+      </c>
+      <c r="M5">
+        <v>4000</v>
+      </c>
+      <c r="N5">
+        <v>1013149</v>
+      </c>
+      <c r="O5">
+        <v>1193947</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>-17.845154069144812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>3659360</v>
+      </c>
+      <c r="C6">
+        <v>4254039</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-16.250901797035539</v>
+      </c>
+      <c r="G6">
+        <v>8000</v>
+      </c>
+      <c r="H6">
+        <v>3238254</v>
+      </c>
+      <c r="I6">
+        <v>3690378</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-13.961968394079037</v>
+      </c>
+      <c r="M6">
+        <v>8000</v>
+      </c>
+      <c r="N6">
+        <v>2435938</v>
+      </c>
+      <c r="O6">
+        <v>2544448</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>-4.4545468727036592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>16000</v>
+      </c>
+      <c r="B7">
+        <v>8912382</v>
+      </c>
+      <c r="C7">
+        <v>9449676</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-6.0286239974902429</v>
+      </c>
+      <c r="G7">
+        <v>16000</v>
+      </c>
+      <c r="H7">
+        <v>7815457</v>
+      </c>
+      <c r="I7">
+        <v>7661092</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.9751244233062693</v>
+      </c>
+      <c r="M7">
+        <v>16000</v>
+      </c>
+      <c r="N7">
+        <v>6305451</v>
+      </c>
+      <c r="O7">
+        <v>6172980</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>2.1008965100196662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>32000</v>
+      </c>
+      <c r="B8">
+        <v>23325922</v>
+      </c>
+      <c r="C8">
+        <v>22979091</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.4868908504452776</v>
+      </c>
+      <c r="G8">
+        <v>32000</v>
+      </c>
+      <c r="H8">
+        <v>20120361</v>
+      </c>
+      <c r="I8">
+        <v>19712096</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>2.0291136923437847</v>
+      </c>
+      <c r="M8">
+        <v>32000</v>
+      </c>
+      <c r="N8">
+        <v>17294057</v>
+      </c>
+      <c r="O8">
+        <v>16650959</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>3.7186069179718828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>64000</v>
+      </c>
+      <c r="B9">
+        <v>69918922</v>
+      </c>
+      <c r="C9">
+        <v>63648713</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8.9678284799642682</v>
+      </c>
+      <c r="G9">
+        <v>64000</v>
+      </c>
+      <c r="H9">
+        <v>64472764</v>
+      </c>
+      <c r="I9">
+        <v>60549805</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>6.0846763138617774</v>
+      </c>
+      <c r="M9">
+        <v>64000</v>
+      </c>
+      <c r="N9">
+        <v>58693443</v>
+      </c>
+      <c r="O9">
+        <v>50728744</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>13.569997929751707</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>934175</v>
+      </c>
+      <c r="C3">
+        <v>1282831</v>
+      </c>
+      <c r="D3">
+        <f>100-100/B3*C3</f>
+        <v>-37.322343244038848</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>13281080</v>
+      </c>
+      <c r="I3">
+        <v>4178424</v>
+      </c>
+      <c r="J3">
+        <f>100-100/H3*I3</f>
+        <v>68.538522469558202</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>870768</v>
+      </c>
+      <c r="O3">
+        <v>1162917</v>
+      </c>
+      <c r="P3">
+        <f>100-100/N3*O3</f>
+        <v>-33.550727633537292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>1743722</v>
+      </c>
+      <c r="C4">
+        <v>2300639</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">100-100/B4*C4</f>
+        <v>-31.938405319196534</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>1327537</v>
+      </c>
+      <c r="I4">
+        <v>1635158</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="1">100-100/H4*I4</f>
+        <v>-23.172310828248101</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <v>1574554</v>
+      </c>
+      <c r="O4">
+        <v>2183498</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P9" si="2">100-100/N4*O4</f>
+        <v>-38.674062623447639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>3489001</v>
+      </c>
+      <c r="C5">
+        <v>4636778</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-32.897009774431126</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>2768726</v>
+      </c>
+      <c r="I5">
+        <v>3305456</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-19.385450203450958</v>
+      </c>
+      <c r="M5">
+        <v>4000</v>
+      </c>
+      <c r="N5">
+        <v>3151327</v>
+      </c>
+      <c r="O5">
+        <v>4332115</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>-37.469548542566343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>7469278</v>
+      </c>
+      <c r="C6">
+        <v>9666625</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-29.418465881173518</v>
+      </c>
+      <c r="G6">
+        <v>8000</v>
+      </c>
+      <c r="H6">
+        <v>5901231</v>
+      </c>
+      <c r="I6">
+        <v>6772999</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-14.772646588482971</v>
+      </c>
+      <c r="M6">
+        <v>8000</v>
+      </c>
+      <c r="N6">
+        <v>6714487</v>
+      </c>
+      <c r="O6">
+        <v>8851391</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>-31.825275706096392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>16000</v>
+      </c>
+      <c r="B7">
+        <v>16530801</v>
+      </c>
+      <c r="C7">
+        <v>19991435</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-20.934460465648343</v>
+      </c>
+      <c r="G7">
+        <v>16000</v>
+      </c>
+      <c r="H7">
+        <v>13728073</v>
+      </c>
+      <c r="I7">
+        <v>14678634</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-6.9242128884366991</v>
+      </c>
+      <c r="M7">
+        <v>16000</v>
+      </c>
+      <c r="N7">
+        <v>14991266</v>
+      </c>
+      <c r="O7">
+        <v>18644709</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>-24.370476782948145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>32000</v>
+      </c>
+      <c r="B8">
+        <v>39673211</v>
+      </c>
+      <c r="C8">
+        <v>45802978</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-15.450645020893319</v>
+      </c>
+      <c r="G8">
+        <v>32000</v>
+      </c>
+      <c r="H8">
+        <v>32449998</v>
+      </c>
+      <c r="I8">
+        <v>32598414</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-0.45736828704889376</v>
+      </c>
+      <c r="M8">
+        <v>32000</v>
+      </c>
+      <c r="N8">
+        <v>35429176</v>
+      </c>
+      <c r="O8">
+        <v>39936190</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>-12.721193402860962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>64000</v>
+      </c>
+      <c r="B9">
+        <v>105754598</v>
+      </c>
+      <c r="C9">
+        <v>110657364</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-4.6359837706536382</v>
+      </c>
+      <c r="G9">
+        <v>64000</v>
+      </c>
+      <c r="H9">
+        <v>85228201</v>
+      </c>
+      <c r="I9">
+        <v>79491671</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>6.7307885567125822</v>
+      </c>
+      <c r="M9">
+        <v>64000</v>
+      </c>
+      <c r="N9">
+        <v>103811957</v>
+      </c>
+      <c r="O9">
+        <v>124982056</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>-20.392736647860332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <v>977145</v>
+      </c>
+      <c r="C15">
+        <v>1229073</v>
+      </c>
+      <c r="D15">
+        <f>100-100/B15*C15</f>
+        <v>-25.782048723577361</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>871721</v>
+      </c>
+      <c r="I15">
+        <v>1186924</v>
+      </c>
+      <c r="J15">
+        <f>100-100/H15*I15</f>
+        <v>-36.158702153556021</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15">
+        <v>919196</v>
+      </c>
+      <c r="O15">
+        <v>1882394</v>
+      </c>
+      <c r="P15">
+        <f>100-100/N15*O15</f>
+        <v>-104.78700951701268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>2000</v>
+      </c>
+      <c r="B16">
+        <v>1609272</v>
+      </c>
+      <c r="C16">
+        <v>2217453</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D21" si="3">100-100/B16*C16</f>
+        <v>-37.792306086230298</v>
+      </c>
+      <c r="G16">
+        <v>2000</v>
+      </c>
+      <c r="H16">
+        <v>1652796</v>
+      </c>
+      <c r="I16">
+        <v>2191917</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J21" si="4">100-100/H16*I16</f>
+        <v>-32.618726085977954</v>
+      </c>
+      <c r="M16">
+        <v>2000</v>
+      </c>
+      <c r="N16">
+        <v>1606530</v>
+      </c>
+      <c r="O16">
+        <v>2230473</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P21" si="5">100-100/N16*O16</f>
+        <v>-38.837930197381951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>4000</v>
+      </c>
+      <c r="B17">
+        <v>3197509</v>
+      </c>
+      <c r="C17">
+        <v>4334544</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>-35.560025006966356</v>
+      </c>
+      <c r="G17">
+        <v>4000</v>
+      </c>
+      <c r="H17">
+        <v>3173286</v>
+      </c>
+      <c r="I17">
+        <v>4310698</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>-35.843349764250689</v>
+      </c>
+      <c r="M17">
+        <v>4000</v>
+      </c>
+      <c r="N17">
+        <v>3192414</v>
+      </c>
+      <c r="O17">
+        <v>4326138</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>-35.513063155342621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>6829573</v>
+      </c>
+      <c r="C18">
+        <v>8802185</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>-28.883386999450778</v>
+      </c>
+      <c r="G18">
+        <v>8000</v>
+      </c>
+      <c r="H18">
+        <v>6756591</v>
+      </c>
+      <c r="I18">
+        <v>8959130</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>-32.598376903382189</v>
+      </c>
+      <c r="M18">
+        <v>8000</v>
+      </c>
+      <c r="N18">
+        <v>6819851</v>
+      </c>
+      <c r="O18">
+        <v>8806624</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>-29.132205381026637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>16000</v>
+      </c>
+      <c r="B19">
+        <v>15182853</v>
+      </c>
+      <c r="C19">
+        <v>18338679</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>-20.785461072434799</v>
+      </c>
+      <c r="G19">
+        <v>16000</v>
+      </c>
+      <c r="H19">
+        <v>14996158</v>
+      </c>
+      <c r="I19">
+        <v>18629440</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>-24.228085620330233</v>
+      </c>
+      <c r="M19">
+        <v>16000</v>
+      </c>
+      <c r="N19">
+        <v>15133644</v>
+      </c>
+      <c r="O19">
+        <v>18406488</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>-21.626278508996251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>32000</v>
+      </c>
+      <c r="B20">
+        <v>36043309</v>
+      </c>
+      <c r="C20">
+        <v>40353049</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-11.957115258202279</v>
+      </c>
+      <c r="G20">
+        <v>32000</v>
+      </c>
+      <c r="H20">
+        <v>35906038</v>
+      </c>
+      <c r="I20">
+        <v>41934359</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>-16.789156742941131</v>
+      </c>
+      <c r="M20">
+        <v>32000</v>
+      </c>
+      <c r="N20">
+        <v>35863423</v>
+      </c>
+      <c r="O20">
+        <v>40758617</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>-13.64954483011843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>64000</v>
+      </c>
+      <c r="B21">
+        <v>99557350</v>
+      </c>
+      <c r="C21">
+        <v>109597526</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>-10.084816439971519</v>
+      </c>
+      <c r="G21">
+        <v>64000</v>
+      </c>
+      <c r="H21">
+        <v>103074906</v>
+      </c>
+      <c r="I21">
+        <v>124762231</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>-21.040353895641672</v>
+      </c>
+      <c r="M21">
+        <v>64000</v>
+      </c>
+      <c r="N21">
+        <v>103833832</v>
+      </c>
+      <c r="O21">
+        <v>115231718</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>-10.977044553262758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="3">
+        <f>A21*2</f>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3">
+        <f>A22*2</f>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>1000</v>
+      </c>
+      <c r="B26">
+        <v>909101</v>
+      </c>
+      <c r="C26">
+        <v>1228844</v>
+      </c>
+      <c r="D26">
+        <f>100-100/B26*C26</f>
+        <v>-35.171339598130459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>6000</v>
+      </c>
+      <c r="B27">
+        <v>4999719</v>
+      </c>
+      <c r="C27">
+        <v>6407773</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D41" si="6">100-100/B27*C27</f>
+        <v>-28.162662741646074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>11000</v>
+      </c>
+      <c r="B28">
+        <v>9839151</v>
+      </c>
+      <c r="C28">
+        <v>12016065</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>-22.125018713504844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>16000</v>
+      </c>
+      <c r="B29">
+        <v>15161909</v>
+      </c>
+      <c r="C29">
+        <v>18241858</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>-20.313728304265638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>21000</v>
+      </c>
+      <c r="B30">
+        <v>20955187</v>
+      </c>
+      <c r="C30">
+        <v>24533031</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>-17.073787029435721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>26000</v>
+      </c>
+      <c r="B31">
+        <v>27396521</v>
+      </c>
+      <c r="C31">
+        <v>31349332</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>-14.428149471971267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>31000</v>
+      </c>
+      <c r="B32">
+        <v>34109534</v>
+      </c>
+      <c r="C32">
+        <v>38561234</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>-13.051189734811388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>36000</v>
+      </c>
+      <c r="B33">
+        <v>41386417</v>
+      </c>
+      <c r="C33">
+        <v>46272607</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>-11.806264842883124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>41000</v>
+      </c>
+      <c r="B34">
+        <v>49534970</v>
+      </c>
+      <c r="C34">
+        <v>51887057</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>-4.7483363773108067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>46000</v>
+      </c>
+      <c r="B35">
+        <v>57017212</v>
+      </c>
+      <c r="C35">
+        <v>60736497</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>-6.5230916587082532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>51000</v>
+      </c>
+      <c r="B36">
+        <v>65731715</v>
+      </c>
+      <c r="C36">
+        <v>68108259</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>-3.6155210616366844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>56000</v>
+      </c>
+      <c r="B37">
+        <v>75277329</v>
+      </c>
+      <c r="C37">
+        <v>77884567</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>-3.4635102422404032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>61000</v>
+      </c>
+      <c r="B38">
+        <v>85405461</v>
+      </c>
+      <c r="C38">
+        <v>86048967</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>-0.75347172471794011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>66000</v>
+      </c>
+      <c r="B39">
+        <v>96736790</v>
+      </c>
+      <c r="C39">
+        <v>97719554</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>-1.0159154547096421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>71000</v>
+      </c>
+      <c r="B40">
+        <v>108233300</v>
+      </c>
+      <c r="C40">
+        <v>107807876</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>0.39306202434926263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>76000</v>
+      </c>
+      <c r="B41">
+        <v>120910575</v>
+      </c>
+      <c r="C41">
+        <v>119186391</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>1.4259993387675109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dokumente/VergleichRandomWalk.xlsx
+++ b/Dokumente/VergleichRandomWalk.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Normal 20% Random</t>
   </si>
@@ -33,12 +33,27 @@
   <si>
     <t>Mit Index</t>
   </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Anzahl Knoten</t>
+  </si>
+  <si>
+    <t>Anzahl Relationen</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +65,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1379,25 +1402,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94521984"/>
-        <c:axId val="95609216"/>
+        <c:axId val="90262144"/>
+        <c:axId val="91152768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94521984"/>
+        <c:axId val="90262144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95609216"/>
+        <c:crossAx val="91152768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95609216"/>
+        <c:axId val="91152768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1428,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94521984"/>
+        <c:crossAx val="90262144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1417,7 +1440,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1518,25 +1541,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95646080"/>
-        <c:axId val="95647616"/>
+        <c:axId val="91189632"/>
+        <c:axId val="91191168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95646080"/>
+        <c:axId val="91189632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95647616"/>
+        <c:crossAx val="91191168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95647616"/>
+        <c:axId val="91191168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1567,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95646080"/>
+        <c:crossAx val="91189632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,7 +1579,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3570,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3887,6 +3910,35 @@
         <v>28.073098425651779</v>
       </c>
     </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3894,10 +3946,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D9"/>
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>425473</v>
+      </c>
+      <c r="C3">
+        <v>562458</v>
+      </c>
+      <c r="D3">
+        <f>100-100/B3*C3</f>
+        <v>-32.195932526858343</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>369569</v>
+      </c>
+      <c r="I3">
+        <v>420317</v>
+      </c>
+      <c r="J3">
+        <f>100-100/H3*I3</f>
+        <v>-13.731671217012249</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>282086</v>
+      </c>
+      <c r="O3">
+        <v>309547</v>
+      </c>
+      <c r="P3">
+        <f>100-100/N3*O3</f>
+        <v>-9.7349744404188812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>810756</v>
+      </c>
+      <c r="C4">
+        <v>990162</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">100-100/B4*C4</f>
+        <v>-22.128235868744738</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>698738</v>
+      </c>
+      <c r="I4">
+        <v>851941</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="1">100-100/H4*I4</f>
+        <v>-21.925671710998969</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <v>482858</v>
+      </c>
+      <c r="O4">
+        <v>540868</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P9" si="2">100-100/N4*O4</f>
+        <v>-12.013883999022482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>1610042</v>
+      </c>
+      <c r="C5">
+        <v>2025982</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-25.834108675425867</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>1404513</v>
+      </c>
+      <c r="I5">
+        <v>1655459</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-17.867118353479114</v>
+      </c>
+      <c r="M5">
+        <v>4000</v>
+      </c>
+      <c r="N5">
+        <v>1013149</v>
+      </c>
+      <c r="O5">
+        <v>1193947</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>-17.845154069144812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>3659360</v>
+      </c>
+      <c r="C6">
+        <v>4254039</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-16.250901797035539</v>
+      </c>
+      <c r="G6">
+        <v>8000</v>
+      </c>
+      <c r="H6">
+        <v>3238254</v>
+      </c>
+      <c r="I6">
+        <v>3690378</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-13.961968394079037</v>
+      </c>
+      <c r="M6">
+        <v>8000</v>
+      </c>
+      <c r="N6">
+        <v>2435938</v>
+      </c>
+      <c r="O6">
+        <v>2544448</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>-4.4545468727036592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>16000</v>
+      </c>
+      <c r="B7">
+        <v>8912382</v>
+      </c>
+      <c r="C7">
+        <v>9449676</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-6.0286239974902429</v>
+      </c>
+      <c r="G7">
+        <v>16000</v>
+      </c>
+      <c r="H7">
+        <v>7815457</v>
+      </c>
+      <c r="I7">
+        <v>7661092</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.9751244233062693</v>
+      </c>
+      <c r="M7">
+        <v>16000</v>
+      </c>
+      <c r="N7">
+        <v>6305451</v>
+      </c>
+      <c r="O7">
+        <v>6172980</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>2.1008965100196662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>32000</v>
+      </c>
+      <c r="B8">
+        <v>23325922</v>
+      </c>
+      <c r="C8">
+        <v>22979091</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.4868908504452776</v>
+      </c>
+      <c r="G8">
+        <v>32000</v>
+      </c>
+      <c r="H8">
+        <v>20120361</v>
+      </c>
+      <c r="I8">
+        <v>19712096</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>2.0291136923437847</v>
+      </c>
+      <c r="M8">
+        <v>32000</v>
+      </c>
+      <c r="N8">
+        <v>17294057</v>
+      </c>
+      <c r="O8">
+        <v>16650959</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>3.7186069179718828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>64000</v>
+      </c>
+      <c r="B9">
+        <v>69918922</v>
+      </c>
+      <c r="C9">
+        <v>63648713</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8.9678284799642682</v>
+      </c>
+      <c r="G9">
+        <v>64000</v>
+      </c>
+      <c r="H9">
+        <v>64472764</v>
+      </c>
+      <c r="I9">
+        <v>60549805</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>6.0846763138617774</v>
+      </c>
+      <c r="M9">
+        <v>64000</v>
+      </c>
+      <c r="N9">
+        <v>58693443</v>
+      </c>
+      <c r="O9">
+        <v>50728744</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>13.569997929751707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>63044</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>106653</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3906,6 +4315,9 @@
       <c r="A1" s="2">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" s="2">
         <v>0.2</v>
       </c>
@@ -3929,40 +4341,40 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>425473</v>
+        <v>934175</v>
       </c>
       <c r="C3">
-        <v>562458</v>
+        <v>1282831</v>
       </c>
       <c r="D3">
         <f>100-100/B3*C3</f>
-        <v>-32.195932526858343</v>
+        <v>-37.322343244038848</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>369569</v>
+        <v>13281080</v>
       </c>
       <c r="I3">
-        <v>420317</v>
+        <v>4178424</v>
       </c>
       <c r="J3">
         <f>100-100/H3*I3</f>
-        <v>-13.731671217012249</v>
+        <v>68.538522469558202</v>
       </c>
       <c r="M3">
         <v>1000</v>
       </c>
       <c r="N3">
-        <v>282086</v>
+        <v>870768</v>
       </c>
       <c r="O3">
-        <v>309547</v>
+        <v>1162917</v>
       </c>
       <c r="P3">
         <f>100-100/N3*O3</f>
-        <v>-9.7349744404188812</v>
+        <v>-33.550727633537292</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3970,333 +4382,6 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>810756</v>
-      </c>
-      <c r="C4">
-        <v>990162</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D9" si="0">100-100/B4*C4</f>
-        <v>-22.128235868744738</v>
-      </c>
-      <c r="G4">
-        <v>2000</v>
-      </c>
-      <c r="H4">
-        <v>698738</v>
-      </c>
-      <c r="I4">
-        <v>851941</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J9" si="1">100-100/H4*I4</f>
-        <v>-21.925671710998969</v>
-      </c>
-      <c r="M4">
-        <v>2000</v>
-      </c>
-      <c r="N4">
-        <v>482858</v>
-      </c>
-      <c r="O4">
-        <v>540868</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P9" si="2">100-100/N4*O4</f>
-        <v>-12.013883999022482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-      <c r="B5">
-        <v>1610042</v>
-      </c>
-      <c r="C5">
-        <v>2025982</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-25.834108675425867</v>
-      </c>
-      <c r="G5">
-        <v>4000</v>
-      </c>
-      <c r="H5">
-        <v>1404513</v>
-      </c>
-      <c r="I5">
-        <v>1655459</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>-17.867118353479114</v>
-      </c>
-      <c r="M5">
-        <v>4000</v>
-      </c>
-      <c r="N5">
-        <v>1013149</v>
-      </c>
-      <c r="O5">
-        <v>1193947</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
-        <v>-17.845154069144812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>8000</v>
-      </c>
-      <c r="B6">
-        <v>3659360</v>
-      </c>
-      <c r="C6">
-        <v>4254039</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-16.250901797035539</v>
-      </c>
-      <c r="G6">
-        <v>8000</v>
-      </c>
-      <c r="H6">
-        <v>3238254</v>
-      </c>
-      <c r="I6">
-        <v>3690378</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>-13.961968394079037</v>
-      </c>
-      <c r="M6">
-        <v>8000</v>
-      </c>
-      <c r="N6">
-        <v>2435938</v>
-      </c>
-      <c r="O6">
-        <v>2544448</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>-4.4545468727036592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>16000</v>
-      </c>
-      <c r="B7">
-        <v>8912382</v>
-      </c>
-      <c r="C7">
-        <v>9449676</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-6.0286239974902429</v>
-      </c>
-      <c r="G7">
-        <v>16000</v>
-      </c>
-      <c r="H7">
-        <v>7815457</v>
-      </c>
-      <c r="I7">
-        <v>7661092</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>1.9751244233062693</v>
-      </c>
-      <c r="M7">
-        <v>16000</v>
-      </c>
-      <c r="N7">
-        <v>6305451</v>
-      </c>
-      <c r="O7">
-        <v>6172980</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>2.1008965100196662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>32000</v>
-      </c>
-      <c r="B8">
-        <v>23325922</v>
-      </c>
-      <c r="C8">
-        <v>22979091</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.4868908504452776</v>
-      </c>
-      <c r="G8">
-        <v>32000</v>
-      </c>
-      <c r="H8">
-        <v>20120361</v>
-      </c>
-      <c r="I8">
-        <v>19712096</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>2.0291136923437847</v>
-      </c>
-      <c r="M8">
-        <v>32000</v>
-      </c>
-      <c r="N8">
-        <v>17294057</v>
-      </c>
-      <c r="O8">
-        <v>16650959</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>3.7186069179718828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>64000</v>
-      </c>
-      <c r="B9">
-        <v>69918922</v>
-      </c>
-      <c r="C9">
-        <v>63648713</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>8.9678284799642682</v>
-      </c>
-      <c r="G9">
-        <v>64000</v>
-      </c>
-      <c r="H9">
-        <v>64472764</v>
-      </c>
-      <c r="I9">
-        <v>60549805</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>6.0846763138617774</v>
-      </c>
-      <c r="M9">
-        <v>64000</v>
-      </c>
-      <c r="N9">
-        <v>58693443</v>
-      </c>
-      <c r="O9">
-        <v>50728744</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>13.569997929751707</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3">
-        <v>934175</v>
-      </c>
-      <c r="C3">
-        <v>1282831</v>
-      </c>
-      <c r="D3">
-        <f>100-100/B3*C3</f>
-        <v>-37.322343244038848</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>13281080</v>
-      </c>
-      <c r="I3">
-        <v>4178424</v>
-      </c>
-      <c r="J3">
-        <f>100-100/H3*I3</f>
-        <v>68.538522469558202</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="N3">
-        <v>870768</v>
-      </c>
-      <c r="O3">
-        <v>1162917</v>
-      </c>
-      <c r="P3">
-        <f>100-100/N3*O3</f>
-        <v>-33.550727633537292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>2000</v>
-      </c>
-      <c r="B4">
         <v>1743722</v>
       </c>
       <c r="C4">
@@ -4305,6 +4390,9 @@
       <c r="D4">
         <f t="shared" ref="D4:D9" si="0">100-100/B4*C4</f>
         <v>-31.938405319196534</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2000</v>
@@ -4909,6 +4997,9 @@
         <f t="shared" si="6"/>
         <v>-20.313728304265638</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
@@ -4924,6 +5015,12 @@
         <f t="shared" si="6"/>
         <v>-17.073787029435721</v>
       </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="4">
+        <v>103002</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
@@ -4939,6 +5036,12 @@
         <f t="shared" si="6"/>
         <v>-14.428149471971267</v>
       </c>
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>1999821</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
@@ -4953,6 +5056,12 @@
       <c r="D32">
         <f t="shared" si="6"/>
         <v>-13.051189734811388</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>239.09</v>
       </c>
     </row>
     <row r="33" spans="1:4">

--- a/Dokumente/VergleichRandomWalk.xlsx
+++ b/Dokumente/VergleichRandomWalk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="15876" windowHeight="5592" activeTab="3"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="15876" windowHeight="5592"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,103 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1402,25 +1498,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90262144"/>
-        <c:axId val="91152768"/>
+        <c:axId val="81054720"/>
+        <c:axId val="79553280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90262144"/>
+        <c:axId val="81054720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91152768"/>
+        <c:crossAx val="79553280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91152768"/>
+        <c:axId val="79553280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,19 +1524,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90262144"/>
+        <c:crossAx val="81054720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1541,25 +1638,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91189632"/>
-        <c:axId val="91191168"/>
+        <c:axId val="79590144"/>
+        <c:axId val="79591680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91189632"/>
+        <c:axId val="79590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91191168"/>
+        <c:crossAx val="79591680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91191168"/>
+        <c:axId val="79591680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,19 +1664,610 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91189632"/>
+        <c:crossAx val="79590144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SingleThread</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$I$72:$I$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$72:$J$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>16198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>544075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>653221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>716699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>776940</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>868871</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>967207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1042422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1139778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1242450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1311124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1412007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1529211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1575463</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1738018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1731303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1842429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1973930</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2135018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2109947</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2219909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2342659</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2342216</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2462711</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2609976</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2604471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2646871</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2828500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2876410</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2932594</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3002933</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3373339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3081415</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3154400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3224171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MultiThread</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$I$72:$I$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$K$72:$K$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232726</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>301060</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>360125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>372721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>395819</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>466868</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>443562</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>483727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>559880</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>546604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>580397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>649567</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>615526</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>684840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>710893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>740675</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>767406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>819728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>879431</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>780029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>896406</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>912607</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>951841</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>899403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>959795</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1047937</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1066246</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1082361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1096603</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1203230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="65979136"/>
+        <c:axId val="65981440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65979136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65981440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65981440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="00000" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65979136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1642,6 +2330,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654423</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1935,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U53" sqref="U53"/>
+    <sheetView tabSelected="1" topLeftCell="C57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3036,7 +3754,7 @@
         <v>21.412755714169123</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>32500</v>
       </c>
@@ -3051,7 +3769,7 @@
         <v>22.11704905126507</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>33000</v>
       </c>
@@ -3066,7 +3784,7 @@
         <v>19.733168827022212</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>33500</v>
       </c>
@@ -3081,7 +3799,7 @@
         <v>21.692247797965635</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>34000</v>
       </c>
@@ -3096,7 +3814,7 @@
         <v>21.174291643977568</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>34500</v>
       </c>
@@ -3111,7 +3829,7 @@
         <v>20.398726935619337</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>35000</v>
       </c>
@@ -3126,7 +3844,7 @@
         <v>21.167807878754189</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>35500</v>
       </c>
@@ -3141,7 +3859,7 @@
         <v>20.999851207674396</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>36000</v>
       </c>
@@ -3155,8 +3873,21 @@
         <f t="shared" si="3"/>
         <v>20.579039256823449</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="I72">
+        <v>1000</v>
+      </c>
+      <c r="J72">
+        <v>16198</v>
+      </c>
+      <c r="K72">
+        <v>4152</v>
+      </c>
+      <c r="L72" s="1">
+        <f>100-100/J72*K72</f>
+        <v>74.367205827879985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>36500</v>
       </c>
@@ -3170,8 +3901,21 @@
         <f t="shared" si="3"/>
         <v>20.650081350235851</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="I73">
+        <v>6000</v>
+      </c>
+      <c r="J73">
+        <v>127952</v>
+      </c>
+      <c r="K73">
+        <v>27076</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" ref="L73:L111" si="4">100-100/J73*K73</f>
+        <v>78.838939602350877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>37000</v>
       </c>
@@ -3185,8 +3929,21 @@
         <f t="shared" si="3"/>
         <v>20.584908356239112</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="I74">
+        <v>11000</v>
+      </c>
+      <c r="J74">
+        <v>226112</v>
+      </c>
+      <c r="K74">
+        <v>59860</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="4"/>
+        <v>73.526393999433907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>37500</v>
       </c>
@@ -3200,8 +3957,21 @@
         <f t="shared" si="3"/>
         <v>22.972002477697302</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="I75">
+        <v>16000</v>
+      </c>
+      <c r="J75">
+        <v>302086</v>
+      </c>
+      <c r="K75">
+        <v>66846</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="4"/>
+        <v>77.871864303542708</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>38000</v>
       </c>
@@ -3215,8 +3985,21 @@
         <f t="shared" si="3"/>
         <v>20.115419889664494</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="I76">
+        <v>21000</v>
+      </c>
+      <c r="J76">
+        <v>420287</v>
+      </c>
+      <c r="K76">
+        <v>131393</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="4"/>
+        <v>68.737315215555086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>38500</v>
       </c>
@@ -3230,8 +4013,21 @@
         <f t="shared" si="3"/>
         <v>19.163928586455825</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="I77">
+        <v>26000</v>
+      </c>
+      <c r="J77">
+        <v>525013</v>
+      </c>
+      <c r="K77">
+        <v>143874</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="4"/>
+        <v>72.596107144013573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>39000</v>
       </c>
@@ -3245,8 +4041,21 @@
         <f t="shared" si="3"/>
         <v>21.088941715345925</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="I78">
+        <v>31000</v>
+      </c>
+      <c r="J78">
+        <v>544075</v>
+      </c>
+      <c r="K78">
+        <v>181283</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="4"/>
+        <v>66.680512796948946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>39500</v>
       </c>
@@ -3260,8 +4069,21 @@
         <f t="shared" si="3"/>
         <v>20.656936416388717</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="I79">
+        <v>36000</v>
+      </c>
+      <c r="J79">
+        <v>653221</v>
+      </c>
+      <c r="K79">
+        <v>188829</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" si="4"/>
+        <v>71.092631743315053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>40000</v>
       </c>
@@ -3275,8 +4097,21 @@
         <f t="shared" si="3"/>
         <v>20.891020832376512</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="I80">
+        <v>41000</v>
+      </c>
+      <c r="J80">
+        <v>716699</v>
+      </c>
+      <c r="K80">
+        <v>224847</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" si="4"/>
+        <v>68.627415414281302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>40500</v>
       </c>
@@ -3290,8 +4125,21 @@
         <f t="shared" si="3"/>
         <v>21.494499832595139</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="I81">
+        <v>46000</v>
+      </c>
+      <c r="J81">
+        <v>776940</v>
+      </c>
+      <c r="K81">
+        <v>232726</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="4"/>
+        <v>70.045820784101736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>41000</v>
       </c>
@@ -3305,8 +4153,21 @@
         <f t="shared" si="3"/>
         <v>21.050646031312084</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="I82">
+        <v>51000</v>
+      </c>
+      <c r="J82">
+        <v>868871</v>
+      </c>
+      <c r="K82">
+        <v>281905</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="4"/>
+        <v>67.555022552254599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>41500</v>
       </c>
@@ -3320,8 +4181,21 @@
         <f t="shared" si="3"/>
         <v>21.102902763287972</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="I83">
+        <v>56000</v>
+      </c>
+      <c r="J83">
+        <v>967207</v>
+      </c>
+      <c r="K83">
+        <v>301060</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" si="4"/>
+        <v>68.873260842818553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>42000</v>
       </c>
@@ -3335,8 +4209,21 @@
         <f t="shared" si="3"/>
         <v>21.363734556106252</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="I84">
+        <v>61000</v>
+      </c>
+      <c r="J84">
+        <v>1042422</v>
+      </c>
+      <c r="K84">
+        <v>360125</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="4"/>
+        <v>65.453050683888108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>42500</v>
       </c>
@@ -3350,8 +4237,21 @@
         <f t="shared" si="3"/>
         <v>20.605645676276225</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="I85">
+        <v>66000</v>
+      </c>
+      <c r="J85">
+        <v>1139778</v>
+      </c>
+      <c r="K85">
+        <v>372721</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="4"/>
+        <v>67.298807311599276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>43000</v>
       </c>
@@ -3365,8 +4265,21 @@
         <f t="shared" si="3"/>
         <v>18.049153932191658</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="I86">
+        <v>71000</v>
+      </c>
+      <c r="J86">
+        <v>1242450</v>
+      </c>
+      <c r="K86">
+        <v>395819</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="4"/>
+        <v>68.142058030504245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>43500</v>
       </c>
@@ -3380,8 +4293,21 @@
         <f t="shared" si="3"/>
         <v>20.84133921371469</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="I87">
+        <v>76000</v>
+      </c>
+      <c r="J87">
+        <v>1311124</v>
+      </c>
+      <c r="K87">
+        <v>466868</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="4"/>
+        <v>64.391773775783221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>44000</v>
       </c>
@@ -3395,8 +4321,21 @@
         <f t="shared" si="3"/>
         <v>20.878177769141644</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="I88">
+        <v>81000</v>
+      </c>
+      <c r="J88">
+        <v>1412007</v>
+      </c>
+      <c r="K88">
+        <v>443562</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="4"/>
+        <v>68.586416356292858</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>44500</v>
       </c>
@@ -3410,8 +4349,21 @@
         <f t="shared" si="3"/>
         <v>20.502364322824803</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="I89">
+        <v>86000</v>
+      </c>
+      <c r="J89">
+        <v>1529211</v>
+      </c>
+      <c r="K89">
+        <v>483727</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="4"/>
+        <v>68.367543785651549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>45000</v>
       </c>
@@ -3425,8 +4377,21 @@
         <f t="shared" si="3"/>
         <v>21.831657893106168</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="I90">
+        <v>91000</v>
+      </c>
+      <c r="J90">
+        <v>1575463</v>
+      </c>
+      <c r="K90">
+        <v>559880</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="4"/>
+        <v>64.46251038583577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>45500</v>
       </c>
@@ -3440,8 +4405,21 @@
         <f t="shared" si="3"/>
         <v>20.403752638321919</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="I91">
+        <v>96000</v>
+      </c>
+      <c r="J91">
+        <v>1738018</v>
+      </c>
+      <c r="K91">
+        <v>546604</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" si="4"/>
+        <v>68.550153105433893</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>46000</v>
       </c>
@@ -3455,8 +4433,21 @@
         <f t="shared" si="3"/>
         <v>20.117873278727075</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="I92">
+        <v>101000</v>
+      </c>
+      <c r="J92">
+        <v>1731303</v>
+      </c>
+      <c r="K92">
+        <v>580397</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="4"/>
+        <v>66.476289823329594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>46500</v>
       </c>
@@ -3470,8 +4461,21 @@
         <f t="shared" si="3"/>
         <v>20.396323733956933</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="I93">
+        <v>106000</v>
+      </c>
+      <c r="J93">
+        <v>1842429</v>
+      </c>
+      <c r="K93">
+        <v>649567</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="4"/>
+        <v>64.74398742095353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>47000</v>
       </c>
@@ -3485,8 +4489,21 @@
         <f t="shared" si="3"/>
         <v>21.371846259591578</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="I94">
+        <v>111000</v>
+      </c>
+      <c r="J94">
+        <v>1973930</v>
+      </c>
+      <c r="K94">
+        <v>615526</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="4"/>
+        <v>68.817232627296818</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>47500</v>
       </c>
@@ -3500,8 +4517,21 @@
         <f t="shared" si="3"/>
         <v>20.798343248594563</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="I95">
+        <v>116000</v>
+      </c>
+      <c r="J95">
+        <v>2135018</v>
+      </c>
+      <c r="K95">
+        <v>684840</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="4"/>
+        <v>67.923455446277273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>48000</v>
       </c>
@@ -3515,8 +4545,21 @@
         <f t="shared" si="3"/>
         <v>20.170077117752712</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="I96">
+        <v>121000</v>
+      </c>
+      <c r="J96">
+        <v>2109947</v>
+      </c>
+      <c r="K96">
+        <v>710893</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" si="4"/>
+        <v>66.307542322153125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>48500</v>
       </c>
@@ -3530,8 +4573,21 @@
         <f t="shared" si="3"/>
         <v>20.895982002846949</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="I97">
+        <v>126000</v>
+      </c>
+      <c r="J97">
+        <v>2219909</v>
+      </c>
+      <c r="K97">
+        <v>740675</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="4"/>
+        <v>66.634893592485099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>49000</v>
       </c>
@@ -3545,8 +4601,21 @@
         <f t="shared" si="3"/>
         <v>18.997038010867513</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="I98">
+        <v>131000</v>
+      </c>
+      <c r="J98">
+        <v>2342659</v>
+      </c>
+      <c r="K98">
+        <v>767406</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" si="4"/>
+        <v>67.242095413801152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>49500</v>
       </c>
@@ -3560,8 +4629,21 @@
         <f t="shared" si="3"/>
         <v>20.805610042849793</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="I99">
+        <v>136000</v>
+      </c>
+      <c r="J99">
+        <v>2342216</v>
+      </c>
+      <c r="K99">
+        <v>819728</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="4"/>
+        <v>65.00203226346332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>50000</v>
       </c>
@@ -3575,13 +4657,199 @@
         <f t="shared" si="3"/>
         <v>17.45243893495315</v>
       </c>
+      <c r="I100">
+        <v>141000</v>
+      </c>
+      <c r="J100">
+        <v>2462711</v>
+      </c>
+      <c r="K100">
+        <v>879431</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="4"/>
+        <v>64.290125800388267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="I101">
+        <v>146000</v>
+      </c>
+      <c r="J101">
+        <v>2609976</v>
+      </c>
+      <c r="K101">
+        <v>780029</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" si="4"/>
+        <v>70.113556599754176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="I102">
+        <v>151000</v>
+      </c>
+      <c r="J102">
+        <v>2604471</v>
+      </c>
+      <c r="K102">
+        <v>896406</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" si="4"/>
+        <v>65.582031821433219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="I103">
+        <v>156000</v>
+      </c>
+      <c r="J103">
+        <v>2646871</v>
+      </c>
+      <c r="K103">
+        <v>912607</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" si="4"/>
+        <v>65.52128909946876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="I104">
+        <v>161000</v>
+      </c>
+      <c r="J104">
+        <v>2828500</v>
+      </c>
+      <c r="K104">
+        <v>951841</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" si="4"/>
+        <v>66.348205762771784</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="I105">
+        <v>166000</v>
+      </c>
+      <c r="J105">
+        <v>2876410</v>
+      </c>
+      <c r="K105">
+        <v>899403</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="4"/>
+        <v>68.731752427505114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="I106">
+        <v>171000</v>
+      </c>
+      <c r="J106">
+        <v>2932594</v>
+      </c>
+      <c r="K106">
+        <v>959795</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" si="4"/>
+        <v>67.271466831071734</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="I107">
+        <v>176000</v>
+      </c>
+      <c r="J107">
+        <v>3002933</v>
+      </c>
+      <c r="K107">
+        <v>1047937</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" si="4"/>
+        <v>65.102884413338558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="I108">
+        <v>181000</v>
+      </c>
+      <c r="J108">
+        <v>3373339</v>
+      </c>
+      <c r="K108">
+        <v>1066246</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" si="4"/>
+        <v>68.391970092540362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="I109">
+        <v>186000</v>
+      </c>
+      <c r="J109">
+        <v>3081415</v>
+      </c>
+      <c r="K109">
+        <v>1082361</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" si="4"/>
+        <v>64.874546271761517</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="I110">
+        <v>191000</v>
+      </c>
+      <c r="J110">
+        <v>3154400</v>
+      </c>
+      <c r="K110">
+        <v>1096603</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" si="4"/>
+        <v>65.23576591427846</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="I111">
+        <v>196000</v>
+      </c>
+      <c r="J111">
+        <v>3224171</v>
+      </c>
+      <c r="K111">
+        <v>1203230</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" si="4"/>
+        <v>62.680949614645129</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D100">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:L111">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4305,8 +5573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G52" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
